--- a/清单/树莓派清单（Type-C).xlsx
+++ b/清单/树莓派清单（Type-C).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BCSpace\Block-Chain-Learning\清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F197FB79-72DA-4EA6-8362-F775FAE42BBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530FA8FF-CD95-4FDD-8269-A7BEBCDC7736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D87007DE-43A9-4F44-A071-3B1E4E69F9F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D87007DE-43A9-4F44-A071-3B1E4E69F9F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,26 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type_c数据线 ROS树莓派弯头充电线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普仕尼1m千兆网线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜色分类：白色；长度：1m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.73.476591aaDpnfa4&amp;id=625456279955&amp;ns=1&amp;abbucket=20#detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-14474127987.13.220965c7AukgNv&amp;id=597768578466</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.5.615d3068lBuLJo&amp;id=624592701971&amp;ns=1&amp;abbucket=20&amp;sku_properties=122216547:21516</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-14474127987.14.60bd65c7XUdZlC&amp;id=597271296904</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,6 +328,25 @@
   </si>
   <si>
     <t xml:space="preserve">颜色分类：M2.5*10*6 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千兆网线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色分类：黑色；长度：1.5m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.95.6ff73068e0PE7D&amp;id=626681536484&amp;ns=1&amp;abbucket=14#detail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -732,670 +727,714 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4589FB-E7CB-4356-8B2A-91FF8C9E773A}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="30.75" customWidth="1"/>
-    <col min="3" max="3" width="39.5" customWidth="1"/>
-    <col min="7" max="7" width="114.875" customWidth="1"/>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="4" max="4" width="39.5" customWidth="1"/>
+    <col min="8" max="8" width="114.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>564.4</v>
+      </c>
+      <c r="G2">
+        <f>E2*F2</f>
+        <v>7337.2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>419</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G25" si="0">E3*F3</f>
+        <v>419</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>410</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>6.8</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>108.8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>7.8</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>124.8</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>130</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>2080</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="D2">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>15.99</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>47.97</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>18.5</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>296</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>19.760000000000002</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>564.4</v>
-      </c>
-      <c r="F2">
-        <f>D2*E2</f>
-        <v>7337.2</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>3.89</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>62.24</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>1.2</v>
+      </c>
+      <c r="G14">
+        <f>E14*F14</f>
+        <v>19.2</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>49</v>
+      </c>
+      <c r="G15">
+        <f>E15*F15</f>
+        <v>196</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>71</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>64</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>419</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F26" si="0">D3*E3</f>
-        <v>419</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
+      <c r="F21">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>410</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>410</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>35</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>6.8</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>88.399999999999991</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>15</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>130</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>1950</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>30</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>15.99</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>47.97</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>18.5</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>240.5</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>19.760000000000002</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>3.89</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>54.46</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>1.2</v>
-      </c>
-      <c r="F15">
-        <f>D15*E15</f>
-        <v>15.6</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>49</v>
-      </c>
-      <c r="F16">
-        <f>D16*E16</f>
-        <v>196</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>71</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>64</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>18</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>25</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C22" t="s">
         <v>50</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D22" t="s">
         <v>51</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>6</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
+      <c r="D23" t="s">
+        <v>65</v>
       </c>
       <c r="E23">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
+        <v>3.2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
         <v>70</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1.75</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>0.08</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>3.2</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>1.75</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="G25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>0.08</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F28">
-        <f>SUM(F2:F27)</f>
-        <v>11463.59</v>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <f>SUM(G2:G26)</f>
+        <v>11515.67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{F4630506-1007-438C-8B1C-41A5175363E7}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{C36C4478-E7F7-4249-A9C5-7A6288C2C0AC}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{8FBF464D-310E-4BEE-BF9B-74F17CE4928F}"/>
-    <hyperlink ref="G6" r:id="rId4" xr:uid="{CB466CD0-BA76-4C28-913E-57B76961A82F}"/>
-    <hyperlink ref="G5" r:id="rId5" xr:uid="{523FF97B-AD39-42C7-B6C7-16193A44324E}"/>
-    <hyperlink ref="G9" r:id="rId6" xr:uid="{054CE68D-5128-4C66-9148-4CB57D39EADC}"/>
-    <hyperlink ref="G7" r:id="rId7" location="detail" xr:uid="{8274AF87-671D-4F9C-9AB8-63D4144EA43B}"/>
-    <hyperlink ref="G10" r:id="rId8" xr:uid="{2BD2ECB5-693E-43F2-AB2D-42AE02FAC4F2}"/>
-    <hyperlink ref="G11" r:id="rId9" xr:uid="{1FBB4767-E86D-45F6-B0E0-C66B10D272DE}"/>
-    <hyperlink ref="G12" r:id="rId10" xr:uid="{89B25E36-2488-415B-AF05-4BFB9320084D}"/>
-    <hyperlink ref="G15" r:id="rId11" xr:uid="{CC427B7A-443D-4DBB-A93C-9A7CF4C4A296}"/>
-    <hyperlink ref="G20" r:id="rId12" xr:uid="{F7C9ADA6-66FD-40DD-87B7-87DCA9008B80}"/>
-    <hyperlink ref="G18" r:id="rId13" xr:uid="{0CD8D6D0-51E3-40B4-BF7B-BF2987D4B15B}"/>
-    <hyperlink ref="G21" r:id="rId14" xr:uid="{96AA442E-6D9B-44DA-AA89-C47753D9AF04}"/>
-    <hyperlink ref="G23" r:id="rId15" xr:uid="{EFA0CC36-3DC7-4A8D-A1E8-687850C5D00D}"/>
-    <hyperlink ref="G16" r:id="rId16" xr:uid="{B9B7C6BD-1CEB-407E-B3E3-B0212BB0F7D7}"/>
-    <hyperlink ref="G8" r:id="rId17" xr:uid="{9794AC5A-3F4F-478E-8235-D22E3214C57D}"/>
-    <hyperlink ref="G13" r:id="rId18" xr:uid="{3E7BA015-D656-472A-9FF5-E3317B8B66B1}"/>
-    <hyperlink ref="G14" r:id="rId19" xr:uid="{B872A7ED-6C62-4AF5-960C-D314C98B6D38}"/>
-    <hyperlink ref="G17" r:id="rId20" xr:uid="{2F8567ED-54C8-421E-AF6A-45CE4C22DEFC}"/>
-    <hyperlink ref="G22" r:id="rId21" xr:uid="{4B68F874-770F-4425-BB16-BF4980A38188}"/>
-    <hyperlink ref="G24" r:id="rId22" xr:uid="{3AA84041-FBC0-4027-AFC6-D593BED2CD6E}"/>
-    <hyperlink ref="G26" r:id="rId23" xr:uid="{2DEF3E42-61EB-4179-AF1C-30B86081F42D}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{F4630506-1007-438C-8B1C-41A5175363E7}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{C36C4478-E7F7-4249-A9C5-7A6288C2C0AC}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{8FBF464D-310E-4BEE-BF9B-74F17CE4928F}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{CB466CD0-BA76-4C28-913E-57B76961A82F}"/>
+    <hyperlink ref="H5" r:id="rId5" xr:uid="{523FF97B-AD39-42C7-B6C7-16193A44324E}"/>
+    <hyperlink ref="H8" r:id="rId6" xr:uid="{054CE68D-5128-4C66-9148-4CB57D39EADC}"/>
+    <hyperlink ref="H9" r:id="rId7" xr:uid="{2BD2ECB5-693E-43F2-AB2D-42AE02FAC4F2}"/>
+    <hyperlink ref="H10" r:id="rId8" xr:uid="{1FBB4767-E86D-45F6-B0E0-C66B10D272DE}"/>
+    <hyperlink ref="H11" r:id="rId9" xr:uid="{89B25E36-2488-415B-AF05-4BFB9320084D}"/>
+    <hyperlink ref="H14" r:id="rId10" xr:uid="{CC427B7A-443D-4DBB-A93C-9A7CF4C4A296}"/>
+    <hyperlink ref="H19" r:id="rId11" xr:uid="{F7C9ADA6-66FD-40DD-87B7-87DCA9008B80}"/>
+    <hyperlink ref="H17" r:id="rId12" xr:uid="{0CD8D6D0-51E3-40B4-BF7B-BF2987D4B15B}"/>
+    <hyperlink ref="H20" r:id="rId13" xr:uid="{96AA442E-6D9B-44DA-AA89-C47753D9AF04}"/>
+    <hyperlink ref="H22" r:id="rId14" xr:uid="{EFA0CC36-3DC7-4A8D-A1E8-687850C5D00D}"/>
+    <hyperlink ref="H15" r:id="rId15" xr:uid="{B9B7C6BD-1CEB-407E-B3E3-B0212BB0F7D7}"/>
+    <hyperlink ref="H12" r:id="rId16" xr:uid="{3E7BA015-D656-472A-9FF5-E3317B8B66B1}"/>
+    <hyperlink ref="H13" r:id="rId17" xr:uid="{B872A7ED-6C62-4AF5-960C-D314C98B6D38}"/>
+    <hyperlink ref="H16" r:id="rId18" xr:uid="{2F8567ED-54C8-421E-AF6A-45CE4C22DEFC}"/>
+    <hyperlink ref="H21" r:id="rId19" xr:uid="{4B68F874-770F-4425-BB16-BF4980A38188}"/>
+    <hyperlink ref="H23" r:id="rId20" xr:uid="{3AA84041-FBC0-4027-AFC6-D593BED2CD6E}"/>
+    <hyperlink ref="H25" r:id="rId21" xr:uid="{2DEF3E42-61EB-4179-AF1C-30B86081F42D}"/>
+    <hyperlink ref="H7" r:id="rId22" location="detail" xr:uid="{6FBA134B-DB9F-4ECB-9A35-475E04FFEF50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>